--- a/config_ios提审/banner_style_ui.xlsx
+++ b/config_ios提审/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4916,8 +4916,8 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5445,7 +5445,7 @@
         <v>197</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <v>4</v>
@@ -7031,12 +7031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -7053,7 +7047,37 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -7061,62 +7085,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>